--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2484089.635619951</v>
+        <v>2481676.723114148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>270.6250209036951</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>307.5272957798206</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1531,7 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996201</v>
       </c>
       <c r="E13" t="n">
         <v>99.45882602797661</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,19 +1607,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230749996</v>
       </c>
       <c r="F14" t="n">
-        <v>321.6212326268965</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211451</v>
+        <v>220.0754532340895</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286721</v>
@@ -1850,7 +1850,7 @@
         <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299263</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
         <v>338.651899399376</v>
@@ -1859,7 +1859,7 @@
         <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584038</v>
+        <v>40.96361544584042</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
-        <v>132.4004330580627</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277994</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750775</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X17" t="n">
         <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396018</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629236</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587688</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E19" t="n">
-        <v>78.2098163042337</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059577</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669275</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198531</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750264</v>
+        <v>28.12827406750269</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771187</v>
+        <v>20.70800632771193</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891064</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338337</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
         <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814925</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942555</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
         <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097593</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="20">
@@ -2087,16 +2087,16 @@
         <v>286.4588952783475</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>239.9100887285294</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651899399376</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>342.697579311118</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584043</v>
+        <v>40.96361544584045</v>
       </c>
       <c r="T20" t="n">
         <v>135.6938237972848</v>
@@ -2144,7 +2144,7 @@
         <v>281.0168223750776</v>
       </c>
       <c r="X20" t="n">
-        <v>115.4425379803444</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0137923137182</v>
@@ -2239,25 +2239,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629242</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587694</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423375</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059583</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669281</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198537</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750269</v>
+        <v>28.12827406750271</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771193</v>
+        <v>20.70800632771194</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891065</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584042</v>
+        <v>40.96361544584043</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972847</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U23" t="n">
         <v>182.7710256165666</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>76.53086857198537</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750268</v>
+        <v>28.12827406750269</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771191</v>
+        <v>20.70800632771193</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891065</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,22 +2950,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
         <v>256.9983213925781</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1067657762824</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621587</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
-        <v>42.20693826439358</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333699</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
         <v>256.9983213925781</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>124.3541982182252</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349163</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010745</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621587</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>188.8382781084861</v>
@@ -3740,7 +3740,7 @@
         <v>310.7752483302254</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
         <v>282.7244482874278</v>
@@ -3749,13 +3749,13 @@
         <v>309.9717767390066</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>201.4465268463666</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540652</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492063</v>
+        <v>37.22916845492067</v>
       </c>
       <c r="T41" t="n">
         <v>131.959376806365</v>
@@ -3803,10 +3803,10 @@
         <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>272.5241832257732</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537262</v>
+        <v>95.28822776537265</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495715</v>
+        <v>76.65687968495718</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331399</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967606</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577302</v>
+        <v>94.06721492577304</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106557</v>
+        <v>72.7964215810656</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658289</v>
+        <v>24.39382707658293</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679212</v>
+        <v>48.38621557233343</v>
       </c>
       <c r="S43" t="n">
         <v>117.8104319981867</v>
@@ -3952,16 +3952,16 @@
         <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>211.5917062261149</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
         <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557819</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
         <v>146.6260600188396</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
         <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>284.7234526195654</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>173.2586428563941</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492063</v>
+        <v>37.22916845492067</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
@@ -4043,7 +4043,7 @@
         <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>126.7008840009148</v>
+        <v>95.28822776537265</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495715</v>
+        <v>76.65687968495718</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331396</v>
+        <v>74.47536931331399</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967604</v>
+        <v>73.46245468967606</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577302</v>
+        <v>94.06721492577304</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106557</v>
+        <v>72.7964215810656</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658289</v>
+        <v>24.39382707658293</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679212</v>
+        <v>16.97355933679216</v>
       </c>
       <c r="S46" t="n">
         <v>117.8104319981867</v>
@@ -4189,16 +4189,16 @@
         <v>147.590355942914</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
         <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033358</v>
+        <v>245.977061238877</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557819</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y46" t="n">
         <v>146.6260600188396</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1703.358762105093</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.845878112755</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1071.029812454077</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806479</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445838</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2046.048461132832</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703.358762105093</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,25 +5106,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,19 +5133,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5176,22 +5176,22 @@
         <v>759.4662498052948</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611987</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998341</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657651</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5200,7 +5200,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464212</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>979.854635471874</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D14" t="n">
-        <v>979.854635471874</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="E14" t="n">
-        <v>641.516015821703</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5385,22 +5385,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.155714499834</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328087</v>
@@ -5446,13 +5446,13 @@
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1661.02054385384</v>
+        <v>1889.690865111401</v>
       </c>
       <c r="C17" t="n">
-        <v>1360.971306047101</v>
+        <v>1589.641627304661</v>
       </c>
       <c r="D17" t="n">
-        <v>1071.618886574022</v>
+        <v>1300.289207831583</v>
       </c>
       <c r="E17" t="n">
-        <v>754.7439131094504</v>
+        <v>983.4142343670111</v>
       </c>
       <c r="F17" t="n">
-        <v>412.6712874535147</v>
+        <v>641.3416087110757</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810557</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T17" t="n">
-        <v>3284.228432269937</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U17" t="n">
-        <v>3150.490621100177</v>
+        <v>2962.546766195342</v>
       </c>
       <c r="V17" t="n">
-        <v>2888.341012890279</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W17" t="n">
-        <v>2604.485636753837</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2299.933157626429</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1978.70710478429</v>
+        <v>2111.989302721592</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.220726506102</v>
+        <v>609.2207265061026</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118673</v>
+        <v>509.1978227118678</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332038</v>
+        <v>427.9944624332042</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844829</v>
+        <v>348.9946479844832</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202447</v>
+        <v>271.017979620245</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286359</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016588</v>
+        <v>94.92451448016595</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>1004.963518925712</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551989</v>
+        <v>1645.70149455199</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.308994985648</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138163</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029363</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989862</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.37617169306</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952376</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880161</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
         <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125275</v>
+        <v>873.8352122125281</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026695</v>
+        <v>721.9559122026701</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.02054385384</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C20" t="n">
-        <v>1360.971306047101</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D20" t="n">
-        <v>1071.618886574022</v>
+        <v>883.6750316691858</v>
       </c>
       <c r="E20" t="n">
-        <v>754.7439131094502</v>
+        <v>641.3416087110754</v>
       </c>
       <c r="F20" t="n">
-        <v>412.6712874535148</v>
+        <v>641.3416087110754</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,25 +5762,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T20" t="n">
-        <v>3147.163963787832</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U20" t="n">
         <v>2962.546766195341</v>
@@ -5792,10 +5792,10 @@
         <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2299.933157626429</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1978.70710478429</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031482</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061024</v>
+        <v>609.2207265061026</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118676</v>
+        <v>509.1978227118678</v>
       </c>
       <c r="D22" t="n">
-        <v>427.994462433204</v>
+        <v>427.9944624332042</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844831</v>
+        <v>348.9946479844832</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202449</v>
+        <v>271.017979620245</v>
       </c>
       <c r="G22" t="n">
-        <v>172.228422128636</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016594</v>
+        <v>94.92451448016597</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
@@ -5920,13 +5920,13 @@
         <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631577</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.70149455199</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985649</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.919291138164</v>
@@ -5941,7 +5941,7 @@
         <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952376</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
         <v>1253.415374880162</v>
@@ -5950,10 +5950,10 @@
         <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125279</v>
+        <v>873.8352122125281</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.95591220267</v>
+        <v>721.9559122026701</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430424</v>
+        <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
         <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927739</v>
+        <v>991.9165644927738</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368384</v>
+        <v>649.8439388368383</v>
       </c>
       <c r="G23" t="n">
         <v>303.6847678155073</v>
@@ -5987,28 +5987,28 @@
         <v>75.01444655794663</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>361.9270325896022</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068186</v>
+        <v>695.7464062794486</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.747164455227</v>
+        <v>1146.780619527857</v>
       </c>
       <c r="M23" t="n">
-        <v>1582.279069127152</v>
+        <v>1680.312524199782</v>
       </c>
       <c r="N23" t="n">
-        <v>2129.057886185934</v>
+        <v>2227.091341258564</v>
       </c>
       <c r="O23" t="n">
-        <v>2983.585277553415</v>
+        <v>2730.063812137901</v>
       </c>
       <c r="P23" t="n">
-        <v>3378.359643910594</v>
+        <v>3443.418899584846</v>
       </c>
       <c r="Q23" t="n">
-        <v>3626.646005666276</v>
+        <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
         <v>3750.722327897331</v>
@@ -6017,22 +6017,22 @@
         <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075992</v>
+        <v>3572.280470075993</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483501</v>
+        <v>3387.663272483502</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273602</v>
+        <v>3125.513664273603</v>
       </c>
       <c r="W23" t="n">
         <v>2841.658288137161</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009753</v>
+        <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167613</v>
+        <v>2215.879756167614</v>
       </c>
     </row>
     <row r="24">
@@ -6051,28 +6051,28 @@
         <v>626.6587456644936</v>
       </c>
       <c r="E24" t="n">
-        <v>467.421290659038</v>
+        <v>467.4212906590382</v>
       </c>
       <c r="F24" t="n">
         <v>320.8867326859231</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185411</v>
+        <v>184.5236325185412</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640867</v>
+        <v>94.0217381564087</v>
       </c>
       <c r="I24" t="n">
         <v>75.01444655794663</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.955915028911</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415765</v>
+        <v>773.6540753415763</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930400563892</v>
@@ -6148,22 +6148,22 @@
         <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537586</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>669.3088034519258</v>
+        <v>640.6840604022545</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051475</v>
+        <v>984.8411060018035</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757339</v>
+        <v>1354.87422575734</v>
       </c>
       <c r="O25" t="n">
         <v>1654.203824677753</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111412</v>
+        <v>1886.811325111413</v>
       </c>
       <c r="Q25" t="n">
         <v>1964.421621263927</v>
@@ -6218,37 +6218,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1771.984857554751</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,10 +6260,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3015.155006854131</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3728.510094301078</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
         <v>1910.743863481264</v>
@@ -6640,10 +6640,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="32">
@@ -6686,52 +6686,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>887.9771891384776</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386886</v>
+        <v>1119.741581677075</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058811</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456133</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644863</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032351</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977796</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246646</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572835</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6783,46 +6783,46 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965681</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6874,34 +6874,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,55 +6920,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912114</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810578</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7005,28 +7005,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650709</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>374.627918437164</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
-        <v>323.1827135986716</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>273.9410545901219</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7225416660549</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6911396146172</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1453874063183</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728551</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388407</v>
+        <v>658.8318189486811</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953106</v>
+        <v>536.7106743789943</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,31 +7190,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7245,16 +7245,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7263,7 +7263,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912274</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630291</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E40" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
         <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891712</v>
+        <v>976.6518270891708</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911539</v>
+        <v>748.6622761911534</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214671</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1528.757396066982</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.480326937939</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D41" t="n">
-        <v>946.9000761425573</v>
+        <v>921.3967184461526</v>
       </c>
       <c r="E41" t="n">
-        <v>633.797271355682</v>
+        <v>608.2939136592772</v>
       </c>
       <c r="F41" t="n">
-        <v>633.797271355682</v>
+        <v>269.9934566810385</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120474</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7415,7 +7415,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7451,10 +7451,10 @@
         <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2160.125672484177</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>1842.671788319734</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,34 +7506,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622252</v>
+        <v>582.8155457622254</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456873</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447204</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736962</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G43" t="n">
         <v>164.6840847732425</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246917</v>
+        <v>91.15234580246921</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.14953865739</v>
+        <v>1878.419582863913</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.419146502108</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.921519425497</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999056</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132572</v>
+        <v>839.8856941132574</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.778562781096</v>
+        <v>691.7785627810962</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1817.16843062333</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C44" t="n">
-        <v>1520.891361494288</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>1235.311110698906</v>
+        <v>921.396718446152</v>
       </c>
       <c r="E44" t="n">
-        <v>922.2083059120304</v>
+        <v>633.7972713556819</v>
       </c>
       <c r="F44" t="n">
-        <v>583.9078489337917</v>
+        <v>633.7972713556819</v>
       </c>
       <c r="G44" t="n">
-        <v>241.5208465901573</v>
+        <v>291.4102690120474</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7691,7 +7691,7 @@
         <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>1817.16843062333</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,16 +7728,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.545501555702</v>
+        <v>582.8155457622254</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456873</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447204</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736962</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G46" t="n">
         <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246917</v>
+        <v>91.15234580246921</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.14953865739</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1642.067934676479</v>
       </c>
       <c r="U46" t="n">
         <v>1425.650515613492</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1243.651475218973</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X46" t="n">
-        <v>871.615649906734</v>
+        <v>839.8856941132574</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745728</v>
+        <v>691.7785627810962</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331816</v>
+        <v>161.2833466331804</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772621</v>
+        <v>190.4708996772602</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114946</v>
+        <v>199.0214867114923</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499979</v>
+        <v>189.4604205499954</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253966</v>
+        <v>187.8656757253941</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001313</v>
+        <v>190.8661912001289</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610388</v>
+        <v>197.7493741610367</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168188</v>
+        <v>197.1608845168173</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723706</v>
+        <v>115.0671825723698</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484549</v>
+        <v>117.7238752484537</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888325</v>
+        <v>111.5038326888308</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586514</v>
+        <v>110.5673213586495</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809884</v>
+        <v>98.93952256809685</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195532</v>
+        <v>112.9545713195514</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755408</v>
+        <v>110.1843514755393</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137828</v>
+        <v>124.0787517137818</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.356265474762</v>
+        <v>119.3562654747611</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960293</v>
+        <v>122.5532519960283</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290577</v>
+        <v>111.7023147290567</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297875</v>
+        <v>123.6934388297866</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182096</v>
+        <v>125.0956219182088</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.02369199255577</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1059802910546</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>400.2032972882103</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>62.52018570663904</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>62.52018570663938</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.74982042514679</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>287.0017854473904</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374288</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06989098845861</v>
+        <v>15.06989098845859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>64.33021254997414</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.73550625764044</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.512123887225221e-13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866964</v>
       </c>
       <c r="F14" t="n">
-        <v>38.27967649622239</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>94.43424208705568</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.383618044985</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972847</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>50.37059255850377</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="18">
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>73.79613500139695</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449851</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>186.0644163557892</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>137.5166054738317</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>25.24832411944064</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>25.24832411944124</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>49.3905281976711</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>841409.7806383254</v>
+        <v>841409.7806383246</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718170.1755183263</v>
+        <v>718170.1755183262</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740074.0797217549</v>
+        <v>740074.0797217551</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>785516.4868685597</v>
+        <v>785516.4868685598</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796388.7992818467</v>
+        <v>796388.7992818468</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796388.7992818467</v>
+        <v>796388.7992818468</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>770442.6284946839</v>
+        <v>770442.628494684</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>743923.6223689349</v>
+        <v>743923.622368935</v>
       </c>
     </row>
     <row r="16">
@@ -26317,10 +26317,10 @@
         <v>675902.9794415568</v>
       </c>
       <c r="D2" t="n">
-        <v>675918.2704729636</v>
+        <v>675918.2704729635</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591203</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="F2" t="n">
         <v>630738.0831591203</v>
@@ -26329,22 +26329,22 @@
         <v>650273.9977189356</v>
       </c>
       <c r="H2" t="n">
-        <v>650273.9977189358</v>
+        <v>650273.9977189355</v>
       </c>
       <c r="I2" t="n">
+        <v>677359.4601380343</v>
+      </c>
+      <c r="J2" t="n">
         <v>677359.460138034</v>
       </c>
-      <c r="J2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="K2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380348</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="N2" t="n">
         <v>677359.460138034</v>
@@ -26353,7 +26353,7 @@
         <v>653707.3735934475</v>
       </c>
       <c r="P2" t="n">
-        <v>653707.3735934477</v>
+        <v>653707.3735934475</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264829</v>
+        <v>49603.99004265134</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112468</v>
+        <v>1114814.601112465</v>
       </c>
       <c r="F3" t="n">
-        <v>1.910950686578872e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899397</v>
+        <v>16999.20777899439</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716365</v>
+        <v>28261.85161716342</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225418</v>
+        <v>40637.45238225423</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899434</v>
+        <v>16999.20777899419</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>425002.2112916268</v>
+        <v>425002.2112916257</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861084</v>
+        <v>58825.50137861085</v>
       </c>
       <c r="F4" t="n">
         <v>58825.50137861085</v>
       </c>
       <c r="G4" t="n">
+        <v>72234.15779441231</v>
+      </c>
+      <c r="H4" t="n">
         <v>72234.15779441237</v>
       </c>
-      <c r="H4" t="n">
-        <v>72234.15779441233</v>
-      </c>
       <c r="I4" t="n">
-        <v>87358.26236286771</v>
+        <v>87358.26236286777</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173091</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.15940173097</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173082</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="O4" t="n">
-        <v>74600.57793586687</v>
+        <v>74600.5779358669</v>
       </c>
       <c r="P4" t="n">
-        <v>74600.57793586687</v>
+        <v>74600.57793586684</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253467</v>
+        <v>34890.26850253475</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
         <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="I5" t="n">
         <v>86503.64721582712</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200626.1294457364</v>
+        <v>200621.7158678683</v>
       </c>
       <c r="C6" t="n">
-        <v>200626.1294457363</v>
+        <v>200621.7158678682</v>
       </c>
       <c r="D6" t="n">
-        <v>166421.8006361538</v>
+        <v>166417.4333947423</v>
       </c>
       <c r="E6" t="n">
-        <v>-621157.5126537405</v>
+        <v>-621298.7895536737</v>
       </c>
       <c r="F6" t="n">
-        <v>493657.0884587275</v>
+        <v>493515.8115587916</v>
       </c>
       <c r="G6" t="n">
-        <v>480998.7558252822</v>
+        <v>480916.6786664361</v>
       </c>
       <c r="H6" t="n">
-        <v>497997.9636042764</v>
+        <v>497915.8864454305</v>
       </c>
       <c r="I6" t="n">
-        <v>475235.6989421755</v>
+        <v>475235.6989421761</v>
       </c>
       <c r="J6" t="n">
-        <v>462485.9066792423</v>
+        <v>462485.9066792428</v>
       </c>
       <c r="K6" t="n">
-        <v>503123.3590614971</v>
+        <v>503123.3590614969</v>
       </c>
       <c r="L6" t="n">
-        <v>486124.1512825023</v>
+        <v>486124.1512825036</v>
       </c>
       <c r="M6" t="n">
-        <v>301708.7518509028</v>
+        <v>301708.7518509023</v>
       </c>
       <c r="N6" t="n">
-        <v>503876.851843627</v>
+        <v>503876.8518436269</v>
       </c>
       <c r="O6" t="n">
-        <v>498750.9681132539</v>
+        <v>498679.2951237248</v>
       </c>
       <c r="P6" t="n">
-        <v>498750.9681132541</v>
+        <v>498679.295123725</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I2" t="n">
         <v>68.22414634233542</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.920573510765</v>
+        <v>57.92057351076856</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>937.6805819743328</v>
@@ -26814,22 +26814,22 @@
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374291</v>
+        <v>21.24900972374284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.7261268948497</v>
+        <v>25.72612689484971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374292</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951234</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.920573510765</v>
+        <v>57.92057351076856</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082533</v>
+        <v>1031.85612708253</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720401</v>
+        <v>106.2791265720399</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428177</v>
+        <v>76.65587923428188</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374291</v>
+        <v>21.24900972374284</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.7261268948497</v>
+        <v>25.72612689484971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507124</v>
+        <v>201.4990738507118</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098106</v>
+        <v>135.2425723098097</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596059</v>
+        <v>203.7140793596056</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858955</v>
+        <v>85.1072318885893</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643191</v>
+        <v>92.42270548643144</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112975</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284951</v>
+        <v>85.97478175284905</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657832</v>
+        <v>10.13465691657757</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156887</v>
+        <v>77.41603665156833</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348048</v>
+        <v>172.5970773348045</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005766</v>
+        <v>222.1963728005765</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.91388186835508</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.91388186835422</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233547</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.91388186835553</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835582</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>68.22414634233542</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29223,13 +29223,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>28.91388186835462</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.9138818683553</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>46.72521440565492</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>54.14548214544451</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>55.47778196371215</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371152</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325521</v>
+        <v>40.54593709771391</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V43" t="n">
-        <v>40.54593709771308</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C46" t="n">
-        <v>40.54593709771308</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325521</v>
+        <v>40.54593709771402</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325521</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.232846526676442</v>
+        <v>0.2328465266764563</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325113</v>
+        <v>2.384639491325259</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693539</v>
+        <v>8.976815719694091</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350469</v>
+        <v>19.7625578935059</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771848</v>
+        <v>29.61895136772031</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849266</v>
+        <v>36.74492825849492</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727483</v>
+        <v>40.88581267727734</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119427</v>
+        <v>41.54738787119683</v>
       </c>
       <c r="O8" t="n">
-        <v>39.2320202215554</v>
+        <v>39.23202022155781</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423073</v>
+        <v>33.48362159423279</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763064</v>
+        <v>25.14480535763219</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133906</v>
+        <v>14.62654563133996</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639428</v>
+        <v>5.305990226639754</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526126</v>
+        <v>1.019285670526188</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411536</v>
+        <v>0.0186277221341165</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986266</v>
+        <v>0.1245838750986343</v>
       </c>
       <c r="H9" t="n">
-        <v>1.20321795161042</v>
+        <v>1.203217951610494</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825521</v>
+        <v>4.289400962825785</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429612</v>
+        <v>11.77044409429685</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590411</v>
+        <v>20.11756372590534</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104171</v>
+        <v>27.05054709104337</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336692</v>
+        <v>31.56671256336886</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523447</v>
+        <v>32.40218951523646</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489121</v>
+        <v>29.64167312489304</v>
       </c>
       <c r="P9" t="n">
-        <v>23.7900559387895</v>
+        <v>23.79005593879096</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223872</v>
+        <v>15.9030223722397</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211223</v>
+        <v>7.735128666211698</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906506</v>
+        <v>2.314090837906648</v>
       </c>
       <c r="T9" t="n">
-        <v>0.502160443928236</v>
+        <v>0.5021604439282669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278069</v>
+        <v>0.008196307572278573</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390844</v>
+        <v>0.1044469358390908</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693147</v>
+        <v>0.9286282113693718</v>
       </c>
       <c r="I10" t="n">
-        <v>3.14100421596083</v>
+        <v>3.141004215961023</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823268</v>
+        <v>7.384398363823721</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930453</v>
+        <v>12.13483490930528</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647624</v>
+        <v>15.5284108064772</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157575</v>
+        <v>16.37253195157675</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617554</v>
+        <v>15.98322973617652</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205532</v>
+        <v>14.76309962205623</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093799</v>
+        <v>12.63238213093876</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125513</v>
+        <v>8.746006600126051</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364649</v>
+        <v>4.696314042364937</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395679</v>
+        <v>1.820225236395791</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124514</v>
+        <v>0.4462732713124788</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222792</v>
+        <v>0.005697105591223143</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35817,13 +35817,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618389</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>331.2670120909939</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597742</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36288,10 +36288,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>373.7708280358956</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>331.2670120909955</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>289.8106929612683</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>863.1589811792737</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>348.6712540385527</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>373.7708280358954</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>855.7934116805425</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>461.2821719260107</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>614.8220211195506</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>272.5441252288663</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>624.1930720027909</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>521.1072324560751</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120761</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637041</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687151</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193738</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
